--- a/BackTest/2020-01-19 BackTest BCH.xlsx
+++ b/BackTest/2020-01-19 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>314.7932922900001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>344.7932922900001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>389100</v>
@@ -521,7 +521,7 @@
         <v>334.4520922900001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>389900</v>
@@ -562,7 +562,7 @@
         <v>507.9731759800001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>388200</v>
@@ -603,7 +603,7 @@
         <v>471.6601759800001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>391000</v>
@@ -644,7 +644,7 @@
         <v>333.84917598</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>390300</v>
@@ -685,7 +685,7 @@
         <v>446.10287598</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>388600</v>
@@ -726,7 +726,7 @@
         <v>350.79617598</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>390200</v>
@@ -767,7 +767,7 @@
         <v>535.0660759800001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>389600</v>
@@ -808,7 +808,7 @@
         <v>488.53437598</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>389800</v>
@@ -849,7 +849,7 @@
         <v>493.55207598</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>388800</v>
@@ -890,7 +890,7 @@
         <v>493.60957598</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>389800</v>
@@ -931,7 +931,7 @@
         <v>532.1289759800001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>390000</v>
@@ -972,7 +972,7 @@
         <v>542.1520759800001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>390800</v>
@@ -1013,7 +1013,7 @@
         <v>542.1520759800001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>391000</v>
@@ -1054,7 +1054,7 @@
         <v>532.0618759800001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>391000</v>
@@ -1095,7 +1095,7 @@
         <v>511.2595759800001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>390800</v>
@@ -1136,7 +1136,7 @@
         <v>525.2793759800001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>390400</v>
@@ -1177,7 +1177,7 @@
         <v>548.0170759800001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>391200</v>
@@ -1218,7 +1218,7 @@
         <v>431.3676759800001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>391800</v>
@@ -1259,7 +1259,7 @@
         <v>551.8952759800001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>391400</v>
@@ -1300,7 +1300,7 @@
         <v>526.8862759800001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>391800</v>
@@ -1341,9 +1341,11 @@
         <v>677.7225759800001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>391100</v>
+      </c>
       <c r="J24" t="n">
         <v>389100</v>
       </c>
@@ -1380,9 +1382,11 @@
         <v>716.8922759800001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>392500</v>
+      </c>
       <c r="J25" t="n">
         <v>389100</v>
       </c>
@@ -1419,9 +1423,11 @@
         <v>748.5862021900001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>393000</v>
+      </c>
       <c r="J26" t="n">
         <v>389100</v>
       </c>
@@ -1458,9 +1464,11 @@
         <v>799.0505021900001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>394100</v>
+      </c>
       <c r="J27" t="n">
         <v>389100</v>
       </c>
@@ -1497,9 +1505,11 @@
         <v>1011.00280219</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>394300</v>
+      </c>
       <c r="J28" t="n">
         <v>389100</v>
       </c>
@@ -1536,9 +1546,11 @@
         <v>870.4520021900001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>396800</v>
+      </c>
       <c r="J29" t="n">
         <v>389100</v>
       </c>
@@ -1575,9 +1587,11 @@
         <v>873.6574021900002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>395400</v>
+      </c>
       <c r="J30" t="n">
         <v>389100</v>
       </c>
@@ -1614,9 +1628,11 @@
         <v>750.9711021900002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>396000</v>
+      </c>
       <c r="J31" t="n">
         <v>389100</v>
       </c>
@@ -1653,9 +1669,11 @@
         <v>897.6356197600003</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>395700</v>
+      </c>
       <c r="J32" t="n">
         <v>389100</v>
       </c>
@@ -1692,9 +1710,11 @@
         <v>952.4741197600002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>396500</v>
+      </c>
       <c r="J33" t="n">
         <v>389100</v>
       </c>
@@ -1731,9 +1751,11 @@
         <v>848.6207197600003</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>397000</v>
+      </c>
       <c r="J34" t="n">
         <v>389100</v>
       </c>
@@ -1770,9 +1792,11 @@
         <v>906.4465197600002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>394800</v>
+      </c>
       <c r="J35" t="n">
         <v>389100</v>
       </c>
@@ -1809,9 +1833,11 @@
         <v>863.1646690100002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>395800</v>
+      </c>
       <c r="J36" t="n">
         <v>389100</v>
       </c>
@@ -1848,9 +1874,11 @@
         <v>951.6542690100002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>395000</v>
+      </c>
       <c r="J37" t="n">
         <v>389100</v>
       </c>
@@ -1887,9 +1915,11 @@
         <v>1145.39116724</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>395600</v>
+      </c>
       <c r="J38" t="n">
         <v>389100</v>
       </c>
@@ -1926,9 +1956,11 @@
         <v>1831.37873706</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>397400</v>
+      </c>
       <c r="J39" t="n">
         <v>389100</v>
       </c>
@@ -1965,9 +1997,11 @@
         <v>1401.45963706</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>400200</v>
+      </c>
       <c r="J40" t="n">
         <v>389100</v>
       </c>
@@ -2082,9 +2116,11 @@
         <v>742.2683282200002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>402500</v>
+      </c>
       <c r="J43" t="n">
         <v>389100</v>
       </c>
@@ -2199,9 +2235,11 @@
         <v>1328.4053669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>404300</v>
+      </c>
       <c r="J46" t="n">
         <v>389100</v>
       </c>
@@ -5085,9 +5123,11 @@
         <v>2315.029100169999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>403300</v>
+      </c>
       <c r="J120" t="n">
         <v>389100</v>
       </c>
@@ -5124,9 +5164,11 @@
         <v>2333.539400169999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>402800</v>
+      </c>
       <c r="J121" t="n">
         <v>389100</v>
       </c>
@@ -5163,9 +5205,11 @@
         <v>2359.259800169999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>403600</v>
+      </c>
       <c r="J122" t="n">
         <v>389100</v>
       </c>
@@ -6099,9 +6143,11 @@
         <v>2135.37760017</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>403100</v>
+      </c>
       <c r="J146" t="n">
         <v>389100</v>
       </c>
@@ -6138,9 +6184,11 @@
         <v>2136.53020017</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>402700</v>
+      </c>
       <c r="J147" t="n">
         <v>389100</v>
       </c>
@@ -7971,7 +8019,7 @@
         <v>2943.642512439998</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
@@ -7979,15 +8027,13 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>1.056680801850424</v>
-      </c>
-      <c r="M194" t="n">
-        <v>1.002829218106996</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8015,8 +8061,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8048,8 +8100,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8081,8 +8139,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8114,8 +8178,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8144,11 +8214,17 @@
         <v>4753.877596319999</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8177,11 +8253,17 @@
         <v>4860.559296319999</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8210,11 +8292,17 @@
         <v>5045.058333309998</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +8331,17 @@
         <v>4853.184124629998</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8276,11 +8370,17 @@
         <v>4651.842724629998</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8309,11 +8409,17 @@
         <v>4715.342815479998</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8342,11 +8448,17 @@
         <v>4590.825538799998</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8378,8 +8490,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8408,11 +8526,17 @@
         <v>4637.175038799998</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8444,8 +8568,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8477,8 +8607,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8510,8 +8646,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8540,11 +8682,17 @@
         <v>5654.663762839999</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8576,8 +8724,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8609,8 +8763,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +8799,17 @@
         <v>5451.967235039999</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +8838,17 @@
         <v>5403.227835039998</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8708,8 +8880,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8741,8 +8919,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8774,8 +8958,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8807,8 +8997,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8840,8 +9036,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8873,8 +9075,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8906,8 +9114,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8939,8 +9153,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8972,8 +9192,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9005,8 +9231,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9038,8 +9270,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9071,8 +9309,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9104,8 +9348,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9137,8 +9387,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9170,8 +9426,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9203,8 +9465,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9236,8 +9504,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9269,8 +9543,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9302,8 +9582,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9335,8 +9621,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9368,8 +9660,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9401,8 +9699,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9434,8 +9738,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9467,8 +9777,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9500,8 +9816,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9533,8 +9855,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9566,8 +9894,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9599,8 +9933,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9632,8 +9972,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9665,8 +10011,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9698,8 +10050,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9731,8 +10089,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9764,8 +10128,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9797,8 +10167,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9830,8 +10206,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9863,8 +10245,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9896,8 +10284,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9929,8 +10323,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9962,8 +10362,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9995,8 +10401,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10028,8 +10440,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10061,8 +10479,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10094,8 +10518,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10127,8 +10557,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10160,8 +10596,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10193,8 +10635,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10226,8 +10674,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10259,8 +10713,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10292,8 +10752,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10325,8 +10791,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10358,8 +10830,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10391,8 +10869,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10424,8 +10908,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10457,8 +10947,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10490,8 +10986,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10523,8 +11025,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10556,8 +11064,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10589,8 +11103,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10622,8 +11142,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10655,8 +11181,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10688,8 +11220,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10721,8 +11259,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10754,8 +11298,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10787,8 +11337,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10820,8 +11376,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10853,8 +11415,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10886,8 +11454,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10919,8 +11493,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10952,8 +11532,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10985,8 +11571,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11018,8 +11610,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11051,8 +11649,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11084,8 +11688,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11117,8 +11727,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11150,8 +11766,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11183,8 +11805,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11216,8 +11844,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11249,8 +11883,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11279,11 +11919,17 @@
         <v>6348.230011169994</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11315,8 +11961,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11345,11 +11997,17 @@
         <v>6295.524611169994</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11378,11 +12036,17 @@
         <v>6273.750911169995</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11414,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11447,8 +12117,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11480,8 +12156,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11513,8 +12195,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11546,8 +12234,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11579,8 +12273,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11612,8 +12312,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11645,8 +12351,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11678,8 +12390,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11711,8 +12429,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11744,8 +12468,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11777,8 +12507,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11810,8 +12546,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11843,8 +12585,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11876,8 +12624,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11909,8 +12663,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11942,8 +12702,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11975,8 +12741,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12008,8 +12780,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12041,8 +12819,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12074,8 +12858,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12107,8 +12897,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12140,8 +12936,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12173,8 +12975,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12206,8 +13014,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12239,8 +13053,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12272,8 +13092,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12305,8 +13131,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12338,8 +13170,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12371,8 +13209,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12404,8 +13248,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12437,8 +13287,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12470,8 +13326,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12503,8 +13365,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12536,8 +13404,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12569,8 +13443,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12602,8 +13482,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12635,8 +13521,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12668,8 +13560,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12701,8 +13599,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12734,8 +13638,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12767,8 +13677,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12800,8 +13716,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12833,8 +13755,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12866,8 +13794,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12899,8 +13833,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12932,8 +13872,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12965,8 +13911,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12998,8 +13950,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13031,8 +13989,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13064,8 +14028,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13097,8 +14067,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13130,8 +14106,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13163,8 +14145,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13196,8 +14184,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13229,8 +14223,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13262,8 +14262,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13295,8 +14301,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13325,11 +14337,17 @@
         <v>6645.999941679996</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13358,11 +14376,17 @@
         <v>6688.357741679995</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13391,11 +14415,17 @@
         <v>6630.861341679995</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13424,11 +14454,17 @@
         <v>6627.851141679996</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13457,11 +14493,17 @@
         <v>6554.527141679996</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13490,11 +14532,17 @@
         <v>6568.816141679996</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13523,11 +14571,17 @@
         <v>6568.816141679996</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13556,11 +14610,17 @@
         <v>6523.205441679996</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13589,11 +14649,17 @@
         <v>6523.205441679996</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13622,11 +14688,17 @@
         <v>6520.794641679996</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13655,11 +14727,17 @@
         <v>6537.305941679996</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13688,11 +14766,17 @@
         <v>6537.305941679996</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13721,11 +14805,17 @@
         <v>6549.178241679996</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13754,11 +14844,17 @@
         <v>6576.039541679996</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13787,11 +14883,17 @@
         <v>6576.039541679996</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13820,11 +14922,17 @@
         <v>6566.538041679995</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13853,11 +14961,17 @@
         <v>6641.737241679995</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13886,11 +15000,17 @@
         <v>6662.475368889995</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13919,11 +15039,17 @@
         <v>6668.019812699996</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13952,11 +15078,17 @@
         <v>6701.075090179996</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13985,11 +15117,17 @@
         <v>6707.528490179996</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14018,11 +15156,17 @@
         <v>6743.423591289996</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14051,11 +15195,17 @@
         <v>6797.363595949996</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14084,11 +15234,17 @@
         <v>6826.073495949996</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14117,11 +15273,17 @@
         <v>6774.305795949996</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14150,11 +15312,17 @@
         <v>6767.794395949995</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14183,11 +15351,17 @@
         <v>6773.914795949995</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14216,11 +15390,17 @@
         <v>6783.873195949996</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14249,11 +15429,17 @@
         <v>6787.212901309996</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14282,11 +15468,17 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14315,11 +15507,17 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14348,11 +15546,17 @@
         <v>6810.636101159996</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14381,11 +15585,17 @@
         <v>6845.382401309996</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14414,11 +15624,17 @@
         <v>6980.602001309996</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14447,11 +15663,17 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14480,11 +15702,17 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14513,11 +15741,17 @@
         <v>7377.604012849996</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14546,11 +15780,17 @@
         <v>7038.362817359996</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14579,11 +15819,17 @@
         <v>7046.349817359996</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14612,11 +15858,17 @@
         <v>7116.629417359996</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14645,11 +15897,17 @@
         <v>7204.278130759996</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14678,11 +15936,17 @@
         <v>7380.016559509996</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14711,11 +15975,17 @@
         <v>7186.192559509996</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14744,11 +16014,17 @@
         <v>7157.379159509996</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14777,11 +16053,17 @@
         <v>7210.126563279997</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14810,11 +16092,17 @@
         <v>7167.770563279997</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14843,11 +16131,17 @@
         <v>7194.721163279997</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14876,11 +16170,17 @@
         <v>7159.711640579997</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14909,11 +16209,17 @@
         <v>7229.822440579997</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14942,11 +16248,17 @@
         <v>7229.822440579997</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14978,8 +16290,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15008,11 +16326,17 @@
         <v>7224.560240579997</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15041,11 +16365,17 @@
         <v>7297.333940579997</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15074,11 +16404,17 @@
         <v>7265.067340579997</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15107,11 +16443,17 @@
         <v>7223.159140579997</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15140,11 +16482,17 @@
         <v>7277.111340579997</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15173,11 +16521,17 @@
         <v>7352.386009809997</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15206,11 +16560,17 @@
         <v>7333.615284969997</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15242,8 +16602,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15275,8 +16641,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15308,8 +16680,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15341,8 +16719,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15374,8 +16758,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15407,8 +16797,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15440,8 +16836,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15470,11 +16872,17 @@
         <v>7300.174367239996</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15503,11 +16911,17 @@
         <v>7182.535467239996</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15536,11 +16950,17 @@
         <v>7109.363867239997</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15572,8 +16992,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15605,8 +17031,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15638,8 +17070,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15671,8 +17109,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15704,8 +17148,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15737,8 +17187,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15770,8 +17226,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15803,8 +17265,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15836,8 +17304,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15869,8 +17343,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15902,8 +17382,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15935,8 +17421,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15968,8 +17460,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16001,8 +17499,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16034,8 +17538,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16067,8 +17577,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16100,8 +17616,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16133,8 +17655,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16166,8 +17694,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16199,8 +17733,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16232,8 +17772,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16265,8 +17811,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16298,8 +17850,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16331,8 +17889,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16364,8 +17928,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16397,8 +17967,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16430,8 +18006,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16463,8 +18045,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16496,8 +18084,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16529,8 +18123,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16562,8 +18162,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16595,8 +18201,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16628,8 +18240,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16661,8 +18279,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16694,8 +18318,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16727,8 +18357,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16760,8 +18396,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16793,8 +18435,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16826,8 +18474,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16859,8 +18513,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16892,8 +18552,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16925,8 +18591,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16958,8 +18630,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16991,8 +18669,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17024,8 +18708,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17057,8 +18747,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17090,8 +18786,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17123,8 +18825,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17156,8 +18864,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17189,8 +18903,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17222,8 +18942,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17255,8 +18981,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17288,8 +19020,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17321,8 +19059,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17354,8 +19098,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17387,8 +19137,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17420,8 +19176,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17453,8 +19215,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17486,8 +19254,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17519,8 +19293,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17552,8 +19332,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17585,8 +19371,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17618,8 +19410,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17651,8 +19449,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17684,8 +19488,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17717,8 +19527,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17750,8 +19566,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17783,8 +19605,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17816,8 +19644,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17849,8 +19683,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17879,11 +19719,17 @@
         <v>7551.378581749999</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17912,11 +19758,17 @@
         <v>7886.258216459999</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17945,11 +19797,17 @@
         <v>7585.787180429999</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17978,11 +19836,17 @@
         <v>7441.888758969999</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18011,11 +19875,17 @@
         <v>7417.790164869999</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18044,11 +19914,17 @@
         <v>7703.859070769999</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18077,11 +19953,17 @@
         <v>7458.155535799999</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18110,11 +19992,17 @@
         <v>7516.229835799999</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18143,11 +20031,17 @@
         <v>7516.229835799999</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18176,11 +20070,17 @@
         <v>7445.240835799999</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18209,11 +20109,17 @@
         <v>7402.8961358</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18242,11 +20148,17 @@
         <v>7497.0849358</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18275,11 +20187,17 @@
         <v>7549.503835799999</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18308,11 +20226,17 @@
         <v>8073.89231531</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18341,11 +20265,17 @@
         <v>8734.77041438</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18374,11 +20304,17 @@
         <v>9482.64449721</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18407,11 +20343,17 @@
         <v>8968.91128285</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18440,11 +20382,17 @@
         <v>9333.38263299</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18473,11 +20421,17 @@
         <v>9748.374965810001</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18506,11 +20460,17 @@
         <v>9556.552002330001</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18539,11 +20499,17 @@
         <v>9286.904342290001</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18572,11 +20538,17 @@
         <v>9378.324799310001</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18608,8 +20580,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18641,8 +20619,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18674,8 +20658,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18707,8 +20697,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18740,8 +20736,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18773,8 +20775,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18803,11 +20811,17 @@
         <v>10609.74160783</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18839,8 +20853,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18872,8 +20892,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18905,8 +20931,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18935,11 +20967,17 @@
         <v>11467.83304014</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18971,8 +21009,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19004,8 +21048,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19037,8 +21087,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19070,8 +21126,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19103,8 +21165,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19133,11 +21201,17 @@
         <v>12713.33005518</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19166,11 +21240,17 @@
         <v>11959.1418025</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19199,15 +21279,23 @@
         <v>12423.21818373</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
+        <v>1.163080185042406</v>
+      </c>
+      <c r="M534" t="n">
+        <v>1.002829218106996</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -19232,7 +21320,7 @@
         <v>12210.01654207</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19265,7 +21353,7 @@
         <v>11851.59371644</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19298,7 +21386,7 @@
         <v>11958.36834083</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19331,7 +21419,7 @@
         <v>12591.21631937</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19364,7 +21452,7 @@
         <v>11972.10977979</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19397,7 +21485,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19430,7 +21518,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19463,7 +21551,7 @@
         <v>11780.01577979</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19496,7 +21584,7 @@
         <v>11634.27134089</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19529,7 +21617,7 @@
         <v>11266.26663449</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19562,7 +21650,7 @@
         <v>11554.33493449001</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19595,7 +21683,7 @@
         <v>11772.05531027001</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19628,7 +21716,7 @@
         <v>11921.19791027</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19661,7 +21749,7 @@
         <v>12058.77022655</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19694,7 +21782,7 @@
         <v>11681.34116574</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19727,7 +21815,7 @@
         <v>11560.3569318</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19760,7 +21848,7 @@
         <v>11742.50566884</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19793,7 +21881,7 @@
         <v>11406.97786909</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19826,7 +21914,7 @@
         <v>11525.37036909</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19859,7 +21947,7 @@
         <v>11601.78726909</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19892,7 +21980,7 @@
         <v>11538.43196909</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19925,7 +22013,7 @@
         <v>11688.65447803</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19958,7 +22046,7 @@
         <v>11759.76407803</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19991,7 +22079,7 @@
         <v>11825.18525111</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20024,7 +22112,7 @@
         <v>11722.23035111</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20057,7 +22145,7 @@
         <v>11749.16843987</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20090,7 +22178,7 @@
         <v>11726.63096057</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20288,7 +22376,7 @@
         <v>11419.9746289</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20321,7 +22409,7 @@
         <v>11498.95296154</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20354,7 +22442,7 @@
         <v>11571.64256154</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20387,7 +22475,7 @@
         <v>11489.47906154</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20420,7 +22508,7 @@
         <v>11458.117423</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20453,7 +22541,7 @@
         <v>11368.377323</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20486,7 +22574,7 @@
         <v>11391.445123</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20519,7 +22607,7 @@
         <v>11423.035423</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20552,7 +22640,7 @@
         <v>11258.204023</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20585,7 +22673,7 @@
         <v>10946.523823</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20618,7 +22706,7 @@
         <v>11247.154723</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20651,7 +22739,7 @@
         <v>11279.470223</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20684,7 +22772,7 @@
         <v>11595.477423</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20717,7 +22805,7 @@
         <v>11574.60392678</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20750,7 +22838,7 @@
         <v>11483.42172781</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20783,7 +22871,7 @@
         <v>11222.49651086</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20816,7 +22904,7 @@
         <v>11152.97941086001</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20849,7 +22937,7 @@
         <v>11124.46711086001</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20882,7 +22970,7 @@
         <v>11204.73521086</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20915,7 +23003,7 @@
         <v>11088.32841086</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20948,7 +23036,7 @@
         <v>10959.53431086</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20981,7 +23069,7 @@
         <v>10797.21001086</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21014,7 +23102,7 @@
         <v>10927.33031086</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21047,7 +23135,7 @@
         <v>10903.58381086001</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21080,7 +23168,7 @@
         <v>11124.48489922001</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21113,7 +23201,7 @@
         <v>11246.45789922001</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21146,7 +23234,7 @@
         <v>11574.91277143001</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21179,7 +23267,7 @@
         <v>11949.13927143001</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21212,7 +23300,7 @@
         <v>12325.42305606001</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21245,7 +23333,7 @@
         <v>12184.65004598001</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21278,7 +23366,7 @@
         <v>12238.74644598001</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21311,7 +23399,7 @@
         <v>12087.68575557001</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21344,7 +23432,7 @@
         <v>12068.58027811001</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21377,7 +23465,7 @@
         <v>12011.08737811001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21410,7 +23498,7 @@
         <v>12098.17567811001</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21443,7 +23531,7 @@
         <v>12073.71098390001</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21476,7 +23564,7 @@
         <v>11931.69238390001</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21509,7 +23597,7 @@
         <v>11885.31918390001</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21542,7 +23630,7 @@
         <v>11937.98270432001</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21608,7 +23696,7 @@
         <v>11724.30400341001</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21641,7 +23729,7 @@
         <v>11709.53350341001</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21872,7 +23960,7 @@
         <v>11666.70499514001</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21905,7 +23993,7 @@
         <v>11698.26952248001</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21938,7 +24026,7 @@
         <v>11742.73539193001</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21971,7 +24059,7 @@
         <v>11807.91589193001</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22004,7 +24092,7 @@
         <v>11894.36609193001</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22037,7 +24125,7 @@
         <v>11923.96843843001</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22070,7 +24158,7 @@
         <v>11909.19823843001</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22103,7 +24191,7 @@
         <v>11954.03344004001</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22136,7 +24224,7 @@
         <v>11966.01154004001</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22169,7 +24257,7 @@
         <v>12088.43454004001</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22202,7 +24290,7 @@
         <v>12088.43454004001</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22235,7 +24323,7 @@
         <v>11950.11691873001</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22268,7 +24356,7 @@
         <v>11850.43631873001</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22367,7 +24455,7 @@
         <v>11502.43327566001</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22400,7 +24488,7 @@
         <v>11427.56887566001</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22433,7 +24521,7 @@
         <v>11457.79277566001</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22466,7 +24554,7 @@
         <v>11551.01214706001</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22499,7 +24587,7 @@
         <v>11671.42481922001</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22532,7 +24620,7 @@
         <v>11637.04271922001</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22565,7 +24653,7 @@
         <v>11640.36991922001</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22598,7 +24686,7 @@
         <v>11569.76161922001</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22631,7 +24719,7 @@
         <v>11334.57201922001</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22664,7 +24752,7 @@
         <v>11367.33981922001</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22697,7 +24785,7 @@
         <v>11332.64201922001</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22730,7 +24818,7 @@
         <v>11049.95011922001</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22763,7 +24851,7 @@
         <v>11386.25471922001</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22796,7 +24884,7 @@
         <v>11494.35271922001</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22829,7 +24917,7 @@
         <v>11559.14051922001</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22862,7 +24950,7 @@
         <v>11579.80411862001</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22895,7 +24983,7 @@
         <v>11639.25331862001</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22928,7 +25016,7 @@
         <v>11666.11491862001</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22961,7 +25049,7 @@
         <v>11638.28381862001</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22994,7 +25082,7 @@
         <v>11669.45651862001</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23027,7 +25115,7 @@
         <v>11669.45651862001</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23093,7 +25181,7 @@
         <v>11633.52151862001</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23357,7 +25445,7 @@
         <v>11640.63423267001</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23390,7 +25478,7 @@
         <v>11713.51223267001</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23423,7 +25511,7 @@
         <v>11695.78093267001</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23456,7 +25544,7 @@
         <v>11735.40953267001</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23489,7 +25577,7 @@
         <v>11750.25219478001</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23522,7 +25610,7 @@
         <v>11686.82479478001</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23555,7 +25643,7 @@
         <v>11750.51739478001</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23588,7 +25676,7 @@
         <v>11806.99791141001</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23621,7 +25709,7 @@
         <v>11730.64541141001</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23654,7 +25742,7 @@
         <v>11778.61331141</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23687,7 +25775,7 @@
         <v>11635.38383256</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23720,7 +25808,7 @@
         <v>11553.0454587</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23753,7 +25841,7 @@
         <v>11585.20012849</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23786,7 +25874,7 @@
         <v>11547.61032849</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23819,7 +25907,7 @@
         <v>11473.87012849</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23852,7 +25940,7 @@
         <v>11501.35392849</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23885,7 +25973,7 @@
         <v>11390.85659243</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23918,7 +26006,7 @@
         <v>11470.57329243</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23951,7 +26039,7 @@
         <v>11560.23299352001</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23984,7 +26072,7 @@
         <v>11660.59685952</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24017,7 +26105,7 @@
         <v>11594.78244475</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24050,7 +26138,7 @@
         <v>11567.22224475</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24083,7 +26171,7 @@
         <v>11382.72124475</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24116,7 +26204,7 @@
         <v>11390.49644475</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24149,7 +26237,7 @@
         <v>11414.84224475</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24182,7 +26270,7 @@
         <v>11381.12244475</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24215,7 +26303,7 @@
         <v>11414.11344475</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24248,7 +26336,7 @@
         <v>11425.48524394</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24281,7 +26369,7 @@
         <v>11382.03814394</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24314,7 +26402,7 @@
         <v>11382.03814394</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24347,7 +26435,7 @@
         <v>11382.03814394</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24380,7 +26468,7 @@
         <v>11382.03814394</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24413,7 +26501,7 @@
         <v>11298.08864394</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24446,7 +26534,7 @@
         <v>11393.86944394</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24479,7 +26567,7 @@
         <v>11422.41555921</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24512,7 +26600,7 @@
         <v>11436.27781048</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24545,7 +26633,7 @@
         <v>11466.61342172</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24578,7 +26666,7 @@
         <v>11462.36962172</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24611,7 +26699,7 @@
         <v>11425.97132172</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24644,7 +26732,7 @@
         <v>11440.77662172</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24677,7 +26765,7 @@
         <v>11447.66942126</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24710,7 +26798,7 @@
         <v>11364.82442126</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24743,7 +26831,7 @@
         <v>11296.04622126</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24776,7 +26864,7 @@
         <v>11299.44942126</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24809,7 +26897,7 @@
         <v>11261.54412126</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24842,7 +26930,7 @@
         <v>11281.43522126</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24875,7 +26963,7 @@
         <v>11326.52652126</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24908,7 +26996,7 @@
         <v>11300.99682126001</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24941,7 +27029,7 @@
         <v>11369.39912126</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24974,7 +27062,7 @@
         <v>11339.87632126</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25007,7 +27095,7 @@
         <v>11331.88282126</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25040,7 +27128,7 @@
         <v>11331.88282126</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25073,7 +27161,7 @@
         <v>11203.00932126</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25106,7 +27194,7 @@
         <v>11203.62932126</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25139,7 +27227,7 @@
         <v>11206.33122126</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25172,7 +27260,7 @@
         <v>11104.93322126001</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25205,7 +27293,7 @@
         <v>11165.28152126001</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25238,7 +27326,7 @@
         <v>11165.28152126001</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25271,7 +27359,7 @@
         <v>11033.16532126</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25304,7 +27392,7 @@
         <v>10856.26602126001</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25337,7 +27425,7 @@
         <v>10633.20092126001</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25370,7 +27458,7 @@
         <v>10763.64742126001</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25403,7 +27491,7 @@
         <v>10766.43755198001</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25436,7 +27524,7 @@
         <v>10708.05335198001</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25469,7 +27557,7 @@
         <v>10775.62405198001</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25502,7 +27590,7 @@
         <v>10756.66308499001</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25535,7 +27623,7 @@
         <v>10929.02300377001</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25568,7 +27656,7 @@
         <v>10799.74460389001</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25601,7 +27689,7 @@
         <v>11053.36030389001</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25634,7 +27722,7 @@
         <v>11102.13405991001</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25667,7 +27755,7 @@
         <v>11263.86889193001</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25700,7 +27788,7 @@
         <v>11120.36194102001</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25733,7 +27821,7 @@
         <v>11071.81064102001</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25766,7 +27854,7 @@
         <v>11145.38824102001</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25799,7 +27887,7 @@
         <v>11059.27914102001</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25832,7 +27920,7 @@
         <v>10975.77738898001</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25865,7 +27953,7 @@
         <v>10812.17968898001</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25898,7 +27986,7 @@
         <v>10657.72218898001</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25931,7 +28019,7 @@
         <v>10167.85398898001</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25964,7 +28052,7 @@
         <v>10373.91568898001</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25997,7 +28085,7 @@
         <v>9850.877788980008</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26030,7 +28118,7 @@
         <v>9742.207336740008</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26063,7 +28151,7 @@
         <v>9809.773436740008</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -34643,7 +36731,7 @@
         <v>5262.457002630007</v>
       </c>
       <c r="H1002" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34676,7 +36764,7 @@
         <v>5402.305002630007</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34742,7 +36830,7 @@
         <v>5219.800402630007</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34775,7 +36863,7 @@
         <v>5219.800402630007</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34808,7 +36896,7 @@
         <v>5196.524902630007</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35171,7 +37259,7 @@
         <v>5686.254922920007</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35204,7 +37292,7 @@
         <v>5868.112422790006</v>
       </c>
       <c r="H1019" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35237,7 +37325,7 @@
         <v>5961.455822790006</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35270,7 +37358,7 @@
         <v>5918.858328280006</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35303,7 +37391,7 @@
         <v>6003.171928280007</v>
       </c>
       <c r="H1022" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35336,7 +37424,7 @@
         <v>5986.602328280007</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35369,7 +37457,7 @@
         <v>5895.964228280007</v>
       </c>
       <c r="H1024" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35402,7 +37490,7 @@
         <v>5920.521728280007</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35435,7 +37523,7 @@
         <v>5989.094143840007</v>
       </c>
       <c r="H1026" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35468,7 +37556,7 @@
         <v>5856.475581060007</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35501,7 +37589,7 @@
         <v>5941.696981060008</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35534,7 +37622,7 @@
         <v>5994.758124650008</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35567,7 +37655,7 @@
         <v>6133.751407450008</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35600,7 +37688,7 @@
         <v>6203.583956140008</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35633,7 +37721,7 @@
         <v>6002.948510000008</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35666,7 +37754,7 @@
         <v>6148.576510000008</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -35699,7 +37787,7 @@
         <v>6054.552257160008</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -35732,7 +37820,7 @@
         <v>5965.491557160008</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35765,7 +37853,7 @@
         <v>5935.645557160008</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35798,7 +37886,7 @@
         <v>6023.630257160008</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -35831,7 +37919,7 @@
         <v>6001.455857160008</v>
       </c>
       <c r="H1038" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -35864,7 +37952,7 @@
         <v>5908.370529920008</v>
       </c>
       <c r="H1039" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -35930,7 +38018,7 @@
         <v>6026.548129920008</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -35963,7 +38051,7 @@
         <v>6087.630429920008</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -35996,7 +38084,7 @@
         <v>6047.650325590008</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36029,7 +38117,7 @@
         <v>6100.244925590008</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36062,7 +38150,7 @@
         <v>6115.647838430008</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36095,7 +38183,7 @@
         <v>6196.867938430009</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36128,7 +38216,7 @@
         <v>6219.247638430009</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36161,7 +38249,7 @@
         <v>6323.098907430009</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36227,7 +38315,7 @@
         <v>6235.566041890009</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36524,7 +38612,7 @@
         <v>6546.621396680009</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -38108,7 +40196,7 @@
         <v>5503.744338340008</v>
       </c>
       <c r="H1107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -40847,7 +42935,7 @@
         <v>4998.188362550008</v>
       </c>
       <c r="H1190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -41375,7 +43463,7 @@
         <v>5263.142201730007</v>
       </c>
       <c r="H1206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -41408,7 +43496,7 @@
         <v>5198.399201730007</v>
       </c>
       <c r="H1207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -41441,7 +43529,7 @@
         <v>5239.203701730007</v>
       </c>
       <c r="H1208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -41474,7 +43562,7 @@
         <v>5279.112301730007</v>
       </c>
       <c r="H1209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -41507,7 +43595,7 @@
         <v>5267.512669510007</v>
       </c>
       <c r="H1210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
@@ -41540,7 +43628,7 @@
         <v>5291.133437290007</v>
       </c>
       <c r="H1211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -41573,7 +43661,7 @@
         <v>5263.698050080007</v>
       </c>
       <c r="H1212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -41606,7 +43694,7 @@
         <v>5219.642050080008</v>
       </c>
       <c r="H1213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -41639,7 +43727,7 @@
         <v>5201.484050080007</v>
       </c>
       <c r="H1214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -41672,7 +43760,7 @@
         <v>5134.119950080008</v>
       </c>
       <c r="H1215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -41705,7 +43793,7 @@
         <v>5107.866650080007</v>
       </c>
       <c r="H1216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -41738,7 +43826,7 @@
         <v>5069.024250080007</v>
       </c>
       <c r="H1217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -42431,7 +44519,7 @@
         <v>5339.088837390006</v>
       </c>
       <c r="H1238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
@@ -45808,6 +47896,6 @@
       <c r="M1340" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest BCH.xlsx
+++ b/BackTest/2020-01-19 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1382,11 +1382,9 @@
         <v>716.8922759800001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>392500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>389100</v>
       </c>
@@ -1423,11 +1421,9 @@
         <v>748.5862021900001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>393000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>389100</v>
       </c>
@@ -1464,11 +1460,9 @@
         <v>799.0505021900001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>394100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>389100</v>
       </c>
@@ -1505,11 +1499,9 @@
         <v>1011.00280219</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>394300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>389100</v>
       </c>
@@ -1546,11 +1538,9 @@
         <v>870.4520021900001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>396800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>389100</v>
       </c>
@@ -1587,11 +1577,9 @@
         <v>873.6574021900002</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>395400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>389100</v>
       </c>
@@ -1628,11 +1616,9 @@
         <v>750.9711021900002</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>396000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>389100</v>
       </c>
@@ -1669,11 +1655,9 @@
         <v>897.6356197600003</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>395700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>389100</v>
       </c>
@@ -1710,11 +1694,9 @@
         <v>952.4741197600002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>396500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>389100</v>
       </c>
@@ -1751,11 +1733,9 @@
         <v>848.6207197600003</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>397000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>389100</v>
       </c>
@@ -1792,11 +1772,9 @@
         <v>906.4465197600002</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>394800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>389100</v>
       </c>
@@ -1833,11 +1811,9 @@
         <v>863.1646690100002</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>395800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>389100</v>
       </c>
@@ -1874,11 +1850,9 @@
         <v>951.6542690100002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>395000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>389100</v>
       </c>
@@ -1915,11 +1889,9 @@
         <v>1145.39116724</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>395600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>389100</v>
       </c>
@@ -1956,11 +1928,9 @@
         <v>1831.37873706</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>397400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>389100</v>
       </c>
@@ -1997,11 +1967,9 @@
         <v>1401.45963706</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>400200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>389100</v>
       </c>
@@ -2116,11 +2084,9 @@
         <v>742.2683282200002</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>402500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>389100</v>
       </c>
@@ -2235,11 +2201,9 @@
         <v>1328.4053669</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>404300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>389100</v>
       </c>
@@ -5123,11 +5087,9 @@
         <v>2315.029100169999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>403300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>389100</v>
       </c>
@@ -5164,11 +5126,9 @@
         <v>2333.539400169999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>402800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>389100</v>
       </c>
@@ -5205,11 +5165,9 @@
         <v>2359.259800169999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>403600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>389100</v>
       </c>
@@ -6143,11 +6101,9 @@
         <v>2135.37760017</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>403100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>389100</v>
       </c>
@@ -6184,11 +6140,9 @@
         <v>2136.53020017</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>402700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>389100</v>
       </c>
@@ -8214,7 +8168,7 @@
         <v>4753.877596319999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
@@ -8222,13 +8176,15 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>1.073643022359291</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1.002829218106996</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8253,17 +8209,11 @@
         <v>4860.559296319999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8292,17 +8242,11 @@
         <v>5045.058333309998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8331,17 +8275,11 @@
         <v>4853.184124629998</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8370,17 +8308,11 @@
         <v>4651.842724629998</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8409,17 +8341,11 @@
         <v>4715.342815479998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8448,17 +8374,11 @@
         <v>4590.825538799998</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8487,17 +8407,11 @@
         <v>4637.175038799998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8526,17 +8440,11 @@
         <v>4637.175038799998</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8565,17 +8473,11 @@
         <v>5128.355523029998</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8604,17 +8506,11 @@
         <v>5410.632391579999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8643,17 +8539,11 @@
         <v>5791.600662839998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8685,14 +8575,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8724,14 +8608,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8763,14 +8641,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8802,14 +8674,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8841,14 +8707,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8880,14 +8740,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8919,14 +8773,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8958,14 +8806,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8994,17 +8836,11 @@
         <v>5545.248355689998</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9033,17 +8869,11 @@
         <v>5545.248355689998</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9072,17 +8902,11 @@
         <v>5476.816055689997</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9111,17 +8935,11 @@
         <v>5320.004863909998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9150,17 +8968,11 @@
         <v>5257.298263909997</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9189,17 +9001,11 @@
         <v>5137.132196529998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9228,17 +9034,11 @@
         <v>5312.393396529998</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9267,17 +9067,11 @@
         <v>5079.679796529997</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9306,17 +9100,11 @@
         <v>4937.458696529998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9348,14 +9136,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9387,14 +9169,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9423,17 +9199,11 @@
         <v>5167.923765079997</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9462,17 +9232,11 @@
         <v>5266.115865079997</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9504,14 +9268,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9540,17 +9298,11 @@
         <v>5199.080165079997</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9579,17 +9331,11 @@
         <v>5178.748165079996</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9621,14 +9367,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9657,17 +9397,11 @@
         <v>5374.182065079996</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9696,17 +9430,11 @@
         <v>5433.274065079996</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9735,17 +9463,11 @@
         <v>5524.183116879996</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9774,17 +9496,11 @@
         <v>5516.022516879996</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9813,17 +9529,11 @@
         <v>5647.314409879996</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9852,17 +9562,11 @@
         <v>5679.460009879996</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9894,14 +9598,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9933,14 +9631,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9972,14 +9664,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10011,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10050,14 +9730,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10089,14 +9763,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10128,14 +9796,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10167,14 +9829,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10206,14 +9862,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10245,14 +9895,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10284,14 +9928,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10323,14 +9961,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10362,14 +9994,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10401,14 +10027,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10440,14 +10060,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10479,14 +10093,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10518,14 +10126,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10557,14 +10159,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10596,14 +10192,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10635,14 +10225,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10674,14 +10258,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10713,14 +10291,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10752,14 +10324,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10791,14 +10357,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10830,14 +10390,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10869,14 +10423,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10908,14 +10456,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10947,14 +10489,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10986,14 +10522,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11025,14 +10555,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11064,14 +10588,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11103,14 +10621,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11142,14 +10654,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11181,14 +10687,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11217,17 +10717,11 @@
         <v>6074.229691829994</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11256,17 +10750,11 @@
         <v>6068.364691829995</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11298,14 +10786,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11337,14 +10819,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11376,14 +10852,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11415,14 +10885,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11454,14 +10918,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11493,14 +10951,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11532,14 +10984,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11571,14 +11017,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11610,14 +11050,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11649,14 +11083,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11688,14 +11116,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11727,14 +11149,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11766,14 +11182,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11805,14 +11215,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11844,14 +11248,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11883,14 +11281,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11922,14 +11314,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11961,14 +11347,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12000,14 +11380,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12039,14 +11413,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12078,14 +11446,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12117,14 +11479,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12156,14 +11512,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12195,14 +11545,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12234,14 +11578,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12273,14 +11611,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12312,14 +11644,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12351,14 +11677,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12390,14 +11710,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12429,14 +11743,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12468,14 +11776,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12507,14 +11809,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12546,14 +11842,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12585,14 +11875,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12624,14 +11908,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12663,14 +11941,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12702,14 +11974,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12741,14 +12007,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12780,14 +12040,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12819,14 +12073,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12858,14 +12106,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12897,14 +12139,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12936,14 +12172,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12975,14 +12205,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13014,14 +12238,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13053,14 +12271,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13092,14 +12304,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13131,14 +12337,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13170,14 +12370,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13209,14 +12403,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13248,14 +12436,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13287,14 +12469,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13326,14 +12502,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13365,14 +12535,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13404,14 +12568,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13443,14 +12601,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13482,14 +12634,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13521,14 +12667,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13560,14 +12700,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13599,14 +12733,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13638,14 +12766,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13677,14 +12799,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13716,14 +12832,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13755,14 +12865,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13794,14 +12898,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13833,14 +12931,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13872,14 +12964,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13911,14 +12997,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13950,14 +13030,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13989,14 +13063,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14028,14 +13096,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14067,14 +13129,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14106,14 +13162,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14145,14 +13195,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14184,14 +13228,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14223,14 +13261,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14262,14 +13294,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14301,14 +13327,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14340,14 +13360,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14379,14 +13393,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14418,14 +13426,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14457,14 +13459,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14496,14 +13492,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14535,14 +13525,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14574,14 +13558,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14613,14 +13591,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14652,14 +13624,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14691,14 +13657,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14730,14 +13690,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14769,14 +13723,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14808,14 +13756,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14847,14 +13789,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14886,14 +13822,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14925,14 +13855,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14964,14 +13888,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15003,14 +13921,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15042,14 +13954,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15081,14 +13987,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15120,14 +14020,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15159,14 +14053,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15195,17 +14083,11 @@
         <v>6797.363595949996</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15234,17 +14116,11 @@
         <v>6826.073495949996</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15273,17 +14149,11 @@
         <v>6774.305795949996</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15312,17 +14182,11 @@
         <v>6767.794395949995</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15351,17 +14215,11 @@
         <v>6773.914795949995</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15390,17 +14248,11 @@
         <v>6783.873195949996</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15429,17 +14281,11 @@
         <v>6787.212901309996</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15468,17 +14314,11 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15507,17 +14347,11 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15546,17 +14380,11 @@
         <v>6810.636101159996</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15585,17 +14413,11 @@
         <v>6845.382401309996</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15624,17 +14446,11 @@
         <v>6980.602001309996</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15663,17 +14479,11 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15702,17 +14512,11 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15741,17 +14545,11 @@
         <v>7377.604012849996</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15783,14 +14581,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15819,17 +14611,11 @@
         <v>7046.349817359996</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15861,14 +14647,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15900,14 +14680,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15939,14 +14713,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15978,14 +14746,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16017,14 +14779,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16056,14 +14812,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16095,14 +14845,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16131,17 +14875,11 @@
         <v>7194.721163279997</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16173,14 +14911,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16212,14 +14944,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16251,14 +14977,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16290,14 +15010,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16329,14 +15043,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16368,14 +15076,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16407,14 +15109,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16446,14 +15142,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16485,14 +15175,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16524,14 +15208,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16563,14 +15241,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16602,14 +15274,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16641,14 +15307,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16680,14 +15340,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16719,14 +15373,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16758,14 +15406,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16797,14 +15439,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16836,14 +15472,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16875,14 +15505,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16914,14 +15538,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16953,14 +15571,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16992,14 +15604,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17031,14 +15637,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17070,14 +15670,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17109,14 +15703,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17148,14 +15736,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17187,14 +15769,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17226,14 +15802,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17265,14 +15835,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17304,14 +15868,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17343,14 +15901,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17382,14 +15934,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17421,14 +15967,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17460,14 +16000,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17499,14 +16033,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17538,14 +16066,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17577,14 +16099,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17616,14 +16132,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17655,14 +16165,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17694,14 +16198,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17733,14 +16231,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17772,14 +16264,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17811,14 +16297,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17850,14 +16330,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17889,14 +16363,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17928,14 +16396,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17967,14 +16429,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18006,14 +16462,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18045,14 +16495,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18084,14 +16528,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18123,14 +16561,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18162,14 +16594,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18201,14 +16627,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18240,14 +16660,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18279,14 +16693,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18318,14 +16726,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18357,14 +16759,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18396,14 +16792,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18435,14 +16825,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18474,14 +16858,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18513,14 +16891,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18552,14 +16924,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18591,14 +16957,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18630,14 +16990,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18669,14 +17023,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18708,14 +17056,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18747,14 +17089,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18786,14 +17122,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18825,14 +17155,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18864,14 +17188,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18903,14 +17221,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18942,14 +17254,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18981,14 +17287,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19020,14 +17320,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19059,14 +17353,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19098,14 +17386,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19137,14 +17419,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19176,14 +17452,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19215,14 +17485,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19254,14 +17518,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19293,14 +17551,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19332,14 +17584,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19371,14 +17617,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19410,14 +17650,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19449,14 +17683,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19488,14 +17716,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19527,14 +17749,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19566,14 +17782,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19605,14 +17815,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19644,14 +17848,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19683,14 +17881,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19722,14 +17914,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19761,14 +17947,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19800,14 +17980,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19839,14 +18013,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19878,14 +18046,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19917,14 +18079,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19956,14 +18112,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19995,14 +18145,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20034,14 +18178,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20073,14 +18211,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20112,14 +18244,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20151,14 +18277,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20190,14 +18310,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20229,14 +18343,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20268,14 +18376,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20307,14 +18409,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20346,14 +18442,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20385,14 +18475,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20424,14 +18508,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20463,14 +18541,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20502,14 +18574,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20541,14 +18607,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20580,14 +18640,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20619,14 +18673,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20658,14 +18706,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20697,14 +18739,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20736,14 +18772,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20775,14 +18805,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20814,14 +18838,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20853,14 +18871,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20892,14 +18904,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20931,14 +18937,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20970,14 +18970,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21009,14 +19003,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21048,14 +19036,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21087,14 +19069,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21126,14 +19102,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21165,14 +19135,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21204,14 +19168,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21243,14 +19201,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21279,23 +19231,15 @@
         <v>12423.21818373</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>389100</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
-        <v>1.163080185042406</v>
-      </c>
-      <c r="M534" t="n">
-        <v>1.002829218106996</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -21320,7 +19264,7 @@
         <v>12210.01654207</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -21353,7 +19297,7 @@
         <v>11851.59371644</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -21386,7 +19330,7 @@
         <v>11958.36834083</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -21419,7 +19363,7 @@
         <v>12591.21631937</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -21452,7 +19396,7 @@
         <v>11972.10977979</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21485,7 +19429,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -21518,7 +19462,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -21551,7 +19495,7 @@
         <v>11780.01577979</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21584,7 +19528,7 @@
         <v>11634.27134089</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21617,7 +19561,7 @@
         <v>11266.26663449</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21650,7 +19594,7 @@
         <v>11554.33493449001</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21683,7 +19627,7 @@
         <v>11772.05531027001</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21716,7 +19660,7 @@
         <v>11921.19791027</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21749,7 +19693,7 @@
         <v>12058.77022655</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21782,7 +19726,7 @@
         <v>11681.34116574</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21815,7 +19759,7 @@
         <v>11560.3569318</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21848,7 +19792,7 @@
         <v>11742.50566884</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21881,7 +19825,7 @@
         <v>11406.97786909</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21914,7 +19858,7 @@
         <v>11525.37036909</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21947,7 +19891,7 @@
         <v>11601.78726909</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21980,7 +19924,7 @@
         <v>11538.43196909</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -22013,7 +19957,7 @@
         <v>11688.65447803</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -22046,7 +19990,7 @@
         <v>11759.76407803</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -22079,7 +20023,7 @@
         <v>11825.18525111</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -22112,7 +20056,7 @@
         <v>11722.23035111</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -22145,7 +20089,7 @@
         <v>11749.16843987</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -22376,7 +20320,7 @@
         <v>11419.9746289</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -22409,7 +20353,7 @@
         <v>11498.95296154</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22442,7 +20386,7 @@
         <v>11571.64256154</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -22475,7 +20419,7 @@
         <v>11489.47906154</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22508,7 +20452,7 @@
         <v>11458.117423</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22541,7 +20485,7 @@
         <v>11368.377323</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22574,7 +20518,7 @@
         <v>11391.445123</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22607,7 +20551,7 @@
         <v>11423.035423</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22640,7 +20584,7 @@
         <v>11258.204023</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22673,7 +20617,7 @@
         <v>10946.523823</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22706,7 +20650,7 @@
         <v>11247.154723</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22739,7 +20683,7 @@
         <v>11279.470223</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22772,7 +20716,7 @@
         <v>11595.477423</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22805,7 +20749,7 @@
         <v>11574.60392678</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22838,7 +20782,7 @@
         <v>11483.42172781</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22871,7 +20815,7 @@
         <v>11222.49651086</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22904,7 +20848,7 @@
         <v>11152.97941086001</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22937,7 +20881,7 @@
         <v>11124.46711086001</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22970,7 +20914,7 @@
         <v>11204.73521086</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -23003,7 +20947,7 @@
         <v>11088.32841086</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -23036,7 +20980,7 @@
         <v>10959.53431086</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -23069,7 +21013,7 @@
         <v>10797.21001086</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -23102,7 +21046,7 @@
         <v>10927.33031086</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -23135,7 +21079,7 @@
         <v>10903.58381086001</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -23168,7 +21112,7 @@
         <v>11124.48489922001</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -23201,7 +21145,7 @@
         <v>11246.45789922001</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -23234,7 +21178,7 @@
         <v>11574.91277143001</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -23267,7 +21211,7 @@
         <v>11949.13927143001</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -23300,7 +21244,7 @@
         <v>12325.42305606001</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -23333,7 +21277,7 @@
         <v>12184.65004598001</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -23366,7 +21310,7 @@
         <v>12238.74644598001</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -23399,7 +21343,7 @@
         <v>12087.68575557001</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -23432,7 +21376,7 @@
         <v>12068.58027811001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23465,7 +21409,7 @@
         <v>12011.08737811001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23498,7 +21442,7 @@
         <v>12098.17567811001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23531,7 +21475,7 @@
         <v>12073.71098390001</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23564,7 +21508,7 @@
         <v>11931.69238390001</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23597,7 +21541,7 @@
         <v>11885.31918390001</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23630,7 +21574,7 @@
         <v>11937.98270432001</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23696,7 +21640,7 @@
         <v>11724.30400341001</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23729,7 +21673,7 @@
         <v>11709.53350341001</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23960,7 +21904,7 @@
         <v>11666.70499514001</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23993,7 +21937,7 @@
         <v>11698.26952248001</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -24026,7 +21970,7 @@
         <v>11742.73539193001</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -24059,7 +22003,7 @@
         <v>11807.91589193001</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -24092,7 +22036,7 @@
         <v>11894.36609193001</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24125,7 +22069,7 @@
         <v>11923.96843843001</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24158,7 +22102,7 @@
         <v>11909.19823843001</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -24191,7 +22135,7 @@
         <v>11954.03344004001</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -24224,7 +22168,7 @@
         <v>11966.01154004001</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24257,7 +22201,7 @@
         <v>12088.43454004001</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24290,7 +22234,7 @@
         <v>12088.43454004001</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24323,7 +22267,7 @@
         <v>11950.11691873001</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24356,7 +22300,7 @@
         <v>11850.43631873001</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24488,7 +22432,7 @@
         <v>11427.56887566001</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24521,7 +22465,7 @@
         <v>11457.79277566001</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24554,7 +22498,7 @@
         <v>11551.01214706001</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24587,7 +22531,7 @@
         <v>11671.42481922001</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24620,7 +22564,7 @@
         <v>11637.04271922001</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24653,7 +22597,7 @@
         <v>11640.36991922001</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24686,7 +22630,7 @@
         <v>11569.76161922001</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24719,7 +22663,7 @@
         <v>11334.57201922001</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24752,7 +22696,7 @@
         <v>11367.33981922001</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24785,7 +22729,7 @@
         <v>11332.64201922001</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24818,7 +22762,7 @@
         <v>11049.95011922001</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24851,7 +22795,7 @@
         <v>11386.25471922001</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24884,7 +22828,7 @@
         <v>11494.35271922001</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24917,7 +22861,7 @@
         <v>11559.14051922001</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24950,7 +22894,7 @@
         <v>11579.80411862001</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24983,7 +22927,7 @@
         <v>11639.25331862001</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25016,7 +22960,7 @@
         <v>11666.11491862001</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25049,7 +22993,7 @@
         <v>11638.28381862001</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25082,7 +23026,7 @@
         <v>11669.45651862001</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25115,7 +23059,7 @@
         <v>11669.45651862001</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25181,7 +23125,7 @@
         <v>11633.52151862001</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25544,7 +23488,7 @@
         <v>11735.40953267001</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25610,7 +23554,7 @@
         <v>11686.82479478001</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25643,7 +23587,7 @@
         <v>11750.51739478001</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25676,7 +23620,7 @@
         <v>11806.99791141001</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25709,7 +23653,7 @@
         <v>11730.64541141001</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25742,7 +23686,7 @@
         <v>11778.61331141</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25775,7 +23719,7 @@
         <v>11635.38383256</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25808,7 +23752,7 @@
         <v>11553.0454587</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25841,7 +23785,7 @@
         <v>11585.20012849</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25874,7 +23818,7 @@
         <v>11547.61032849</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25907,7 +23851,7 @@
         <v>11473.87012849</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25940,7 +23884,7 @@
         <v>11501.35392849</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25973,7 +23917,7 @@
         <v>11390.85659243</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26006,7 +23950,7 @@
         <v>11470.57329243</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26039,7 +23983,7 @@
         <v>11560.23299352001</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26072,7 +24016,7 @@
         <v>11660.59685952</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26105,7 +24049,7 @@
         <v>11594.78244475</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26138,7 +24082,7 @@
         <v>11567.22224475</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26171,7 +24115,7 @@
         <v>11382.72124475</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26204,7 +24148,7 @@
         <v>11390.49644475</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26237,7 +24181,7 @@
         <v>11414.84224475</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26270,7 +24214,7 @@
         <v>11381.12244475</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26303,7 +24247,7 @@
         <v>11414.11344475</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26336,7 +24280,7 @@
         <v>11425.48524394</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26369,7 +24313,7 @@
         <v>11382.03814394</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26402,7 +24346,7 @@
         <v>11382.03814394</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26435,7 +24379,7 @@
         <v>11382.03814394</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26468,7 +24412,7 @@
         <v>11382.03814394</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26501,7 +24445,7 @@
         <v>11298.08864394</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26534,7 +24478,7 @@
         <v>11393.86944394</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26567,7 +24511,7 @@
         <v>11422.41555921</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26600,7 +24544,7 @@
         <v>11436.27781048</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26633,7 +24577,7 @@
         <v>11466.61342172</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26666,7 +24610,7 @@
         <v>11462.36962172</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26699,7 +24643,7 @@
         <v>11425.97132172</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26732,7 +24676,7 @@
         <v>11440.77662172</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26765,7 +24709,7 @@
         <v>11447.66942126</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26798,7 +24742,7 @@
         <v>11364.82442126</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26831,7 +24775,7 @@
         <v>11296.04622126</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26864,7 +24808,7 @@
         <v>11299.44942126</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26897,7 +24841,7 @@
         <v>11261.54412126</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26930,7 +24874,7 @@
         <v>11281.43522126</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -27392,7 +25336,7 @@
         <v>10856.26602126001</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27425,7 +25369,7 @@
         <v>10633.20092126001</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -27458,7 +25402,7 @@
         <v>10763.64742126001</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27491,7 +25435,7 @@
         <v>10766.43755198001</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27524,7 +25468,7 @@
         <v>10708.05335198001</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27557,7 +25501,7 @@
         <v>10775.62405198001</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27590,7 +25534,7 @@
         <v>10756.66308499001</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27623,7 +25567,7 @@
         <v>10929.02300377001</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27656,7 +25600,7 @@
         <v>10799.74460389001</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27689,7 +25633,7 @@
         <v>11053.36030389001</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27722,7 +25666,7 @@
         <v>11102.13405991001</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27755,7 +25699,7 @@
         <v>11263.86889193001</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27788,7 +25732,7 @@
         <v>11120.36194102001</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27821,7 +25765,7 @@
         <v>11071.81064102001</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27854,7 +25798,7 @@
         <v>11145.38824102001</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27887,7 +25831,7 @@
         <v>11059.27914102001</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27920,7 +25864,7 @@
         <v>10975.77738898001</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27953,7 +25897,7 @@
         <v>10812.17968898001</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27986,7 +25930,7 @@
         <v>10657.72218898001</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -28019,7 +25963,7 @@
         <v>10167.85398898001</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -28052,7 +25996,7 @@
         <v>10373.91568898001</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -28085,7 +26029,7 @@
         <v>9850.877788980008</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -28118,7 +26062,7 @@
         <v>9742.207336740008</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -28151,7 +26095,7 @@
         <v>9809.773436740008</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -37655,7 +35599,7 @@
         <v>6133.751407450008</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37688,7 +35632,7 @@
         <v>6203.583956140008</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37721,7 +35665,7 @@
         <v>6002.948510000008</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37754,7 +35698,7 @@
         <v>6148.576510000008</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -37787,7 +35731,7 @@
         <v>6054.552257160008</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37820,7 +35764,7 @@
         <v>5965.491557160008</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37853,7 +35797,7 @@
         <v>5935.645557160008</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37886,7 +35830,7 @@
         <v>6023.630257160008</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37919,7 +35863,7 @@
         <v>6001.455857160008</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37952,7 +35896,7 @@
         <v>5908.370529920008</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38051,7 +35995,7 @@
         <v>6087.630429920008</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38084,7 +36028,7 @@
         <v>6047.650325590008</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38117,7 +36061,7 @@
         <v>6100.244925590008</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -38150,7 +36094,7 @@
         <v>6115.647838430008</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -38183,7 +36127,7 @@
         <v>6196.867938430009</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38216,7 +36160,7 @@
         <v>6219.247638430009</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -38315,7 +36259,7 @@
         <v>6235.566041890009</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -38348,7 +36292,7 @@
         <v>6209.778341890009</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -38381,7 +36325,7 @@
         <v>6201.331441890009</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -38414,7 +36358,7 @@
         <v>6298.346541890009</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -38447,7 +36391,7 @@
         <v>6401.948394420008</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -38480,7 +36424,7 @@
         <v>6513.747130840008</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -38513,7 +36457,7 @@
         <v>6717.468241190008</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -38546,7 +36490,7 @@
         <v>6857.664137080009</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -38579,7 +36523,7 @@
         <v>6699.930976110008</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -47896,6 +45840,6 @@
       <c r="M1340" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest BCH.xlsx
+++ b/BackTest/2020-01-19 BackTest BCH.xlsx
@@ -1382,9 +1382,11 @@
         <v>716.8922759800001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>392500</v>
+      </c>
       <c r="J25" t="n">
         <v>389100</v>
       </c>
@@ -1421,9 +1423,11 @@
         <v>748.5862021900001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>393000</v>
+      </c>
       <c r="J26" t="n">
         <v>389100</v>
       </c>
@@ -1460,9 +1464,11 @@
         <v>799.0505021900001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>394100</v>
+      </c>
       <c r="J27" t="n">
         <v>389100</v>
       </c>
@@ -1499,9 +1505,11 @@
         <v>1011.00280219</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>394300</v>
+      </c>
       <c r="J28" t="n">
         <v>389100</v>
       </c>
@@ -1538,9 +1546,11 @@
         <v>870.4520021900001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>396800</v>
+      </c>
       <c r="J29" t="n">
         <v>389100</v>
       </c>
@@ -1577,9 +1587,11 @@
         <v>873.6574021900002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>395400</v>
+      </c>
       <c r="J30" t="n">
         <v>389100</v>
       </c>
@@ -1616,9 +1628,11 @@
         <v>750.9711021900002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>396000</v>
+      </c>
       <c r="J31" t="n">
         <v>389100</v>
       </c>
@@ -1655,9 +1669,11 @@
         <v>897.6356197600003</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>395700</v>
+      </c>
       <c r="J32" t="n">
         <v>389100</v>
       </c>
@@ -1694,9 +1710,11 @@
         <v>952.4741197600002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>396500</v>
+      </c>
       <c r="J33" t="n">
         <v>389100</v>
       </c>
@@ -1733,9 +1751,11 @@
         <v>848.6207197600003</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>397000</v>
+      </c>
       <c r="J34" t="n">
         <v>389100</v>
       </c>
@@ -1772,9 +1792,11 @@
         <v>906.4465197600002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>394800</v>
+      </c>
       <c r="J35" t="n">
         <v>389100</v>
       </c>
@@ -8168,7 +8190,7 @@
         <v>4753.877596319999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
@@ -8176,15 +8198,13 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.073643022359291</v>
-      </c>
-      <c r="M199" t="n">
-        <v>1.002829218106996</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8209,11 +8229,17 @@
         <v>4860.559296319999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +8268,17 @@
         <v>5045.058333309998</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +8307,17 @@
         <v>4853.184124629998</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +8346,17 @@
         <v>4651.842724629998</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8341,11 +8385,17 @@
         <v>4715.342815479998</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +8424,17 @@
         <v>4590.825538799998</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8407,11 +8463,17 @@
         <v>4637.175038799998</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8440,11 +8502,17 @@
         <v>4637.175038799998</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +8541,17 @@
         <v>5128.355523029998</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8506,11 +8580,17 @@
         <v>5410.632391579999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +8619,17 @@
         <v>5791.600662839998</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8575,8 +8661,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8608,8 +8700,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8641,8 +8739,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8674,8 +8778,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8707,8 +8817,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +8856,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8773,8 +8895,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8806,8 +8934,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8836,11 +8970,17 @@
         <v>5545.248355689998</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8869,11 +9009,17 @@
         <v>5545.248355689998</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8902,11 +9048,17 @@
         <v>5476.816055689997</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8935,11 +9087,17 @@
         <v>5320.004863909998</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8968,11 +9126,17 @@
         <v>5257.298263909997</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9001,11 +9165,17 @@
         <v>5137.132196529998</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9034,11 +9204,17 @@
         <v>5312.393396529998</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9067,11 +9243,17 @@
         <v>5079.679796529997</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9100,11 +9282,17 @@
         <v>4937.458696529998</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9136,8 +9324,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9169,8 +9363,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9199,11 +9399,17 @@
         <v>5167.923765079997</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9232,11 +9438,17 @@
         <v>5266.115865079997</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9268,8 +9480,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9298,11 +9516,17 @@
         <v>5199.080165079997</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9331,11 +9555,17 @@
         <v>5178.748165079996</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9367,8 +9597,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9397,11 +9633,17 @@
         <v>5374.182065079996</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9430,11 +9672,17 @@
         <v>5433.274065079996</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9463,11 +9711,17 @@
         <v>5524.183116879996</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +9750,17 @@
         <v>5516.022516879996</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9529,11 +9789,17 @@
         <v>5647.314409879996</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9562,11 +9828,17 @@
         <v>5679.460009879996</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9598,8 +9870,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9631,8 +9909,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +9948,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +9987,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +10026,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +10065,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +10104,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9829,8 +10143,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +10182,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +10221,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9928,8 +10260,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9961,8 +10299,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +10338,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10027,8 +10377,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10060,8 +10416,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10093,8 +10455,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10126,8 +10494,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10159,8 +10533,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10192,8 +10572,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10225,8 +10611,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10258,8 +10650,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10291,8 +10689,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10324,8 +10728,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10357,8 +10767,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10390,8 +10806,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10423,8 +10845,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10456,8 +10884,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10489,8 +10923,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10522,8 +10962,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10555,8 +11001,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10588,8 +11040,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10621,8 +11079,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10654,8 +11118,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10687,8 +11157,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10717,11 +11193,17 @@
         <v>6074.229691829994</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10750,11 +11232,17 @@
         <v>6068.364691829995</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10786,8 +11274,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10819,8 +11313,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +11352,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10885,8 +11391,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10918,8 +11430,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10951,8 +11469,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10984,8 +11508,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11017,8 +11547,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11050,8 +11586,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11083,8 +11625,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11116,8 +11664,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11149,8 +11703,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11182,8 +11742,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11215,8 +11781,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11248,8 +11820,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11281,8 +11859,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11314,8 +11898,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11347,8 +11937,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11380,8 +11976,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11413,8 +12015,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11446,8 +12054,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11479,8 +12093,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11512,8 +12132,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11545,8 +12171,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11578,8 +12210,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11611,8 +12249,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11644,8 +12288,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11677,8 +12327,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11710,8 +12366,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11743,8 +12405,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11776,8 +12444,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11809,8 +12483,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11842,8 +12522,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11875,8 +12561,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11908,8 +12600,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11941,8 +12639,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11974,8 +12678,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12007,8 +12717,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12040,8 +12756,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12073,8 +12795,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12106,8 +12834,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12139,8 +12873,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12172,8 +12912,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12205,8 +12951,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12238,8 +12990,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12271,8 +13029,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12304,8 +13068,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12337,8 +13107,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12370,8 +13146,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12403,8 +13185,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12436,8 +13224,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12469,8 +13263,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12502,8 +13302,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12535,8 +13341,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12568,8 +13380,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12601,8 +13419,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12634,8 +13458,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12667,8 +13497,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12700,8 +13536,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12733,8 +13575,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12766,8 +13614,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12799,8 +13653,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12832,8 +13692,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12865,8 +13731,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12898,8 +13770,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12931,8 +13809,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12964,8 +13848,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12997,8 +13887,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13030,8 +13926,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13063,8 +13965,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13096,8 +14004,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13129,8 +14043,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13162,8 +14082,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13195,8 +14121,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13228,8 +14160,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13261,8 +14199,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13294,8 +14238,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13327,8 +14277,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13360,8 +14316,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13393,8 +14355,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13426,8 +14394,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13459,8 +14433,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13492,8 +14472,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13525,8 +14511,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13558,8 +14550,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13591,8 +14589,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13624,8 +14628,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13657,8 +14667,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13690,8 +14706,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13723,8 +14745,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13756,8 +14784,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13789,8 +14823,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13822,8 +14862,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13855,8 +14901,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13888,8 +14940,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13921,8 +14979,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13954,8 +15018,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13987,8 +15057,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14020,8 +15096,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14053,8 +15135,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14083,11 +15171,17 @@
         <v>6797.363595949996</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14116,11 +15210,17 @@
         <v>6826.073495949996</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14149,11 +15249,17 @@
         <v>6774.305795949996</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14182,11 +15288,17 @@
         <v>6767.794395949995</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14215,11 +15327,17 @@
         <v>6773.914795949995</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14248,11 +15366,17 @@
         <v>6783.873195949996</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14281,11 +15405,17 @@
         <v>6787.212901309996</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14314,11 +15444,17 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14347,11 +15483,17 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14380,11 +15522,17 @@
         <v>6810.636101159996</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14413,11 +15561,17 @@
         <v>6845.382401309996</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14446,11 +15600,17 @@
         <v>6980.602001309996</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14479,11 +15639,17 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14512,11 +15678,17 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14545,11 +15717,17 @@
         <v>7377.604012849996</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14581,8 +15759,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14611,11 +15795,17 @@
         <v>7046.349817359996</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14647,8 +15837,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14680,8 +15876,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14713,8 +15915,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14746,8 +15954,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14779,8 +15993,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14812,8 +16032,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14845,8 +16071,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14875,11 +16107,17 @@
         <v>7194.721163279997</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14911,8 +16149,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14944,8 +16188,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14977,8 +16227,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15010,8 +16266,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15043,8 +16305,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15076,8 +16344,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15109,8 +16383,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15142,8 +16422,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15175,8 +16461,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15208,8 +16500,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15241,8 +16539,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15274,8 +16578,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15307,8 +16617,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15340,8 +16656,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15373,8 +16695,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15406,8 +16734,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15439,8 +16773,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15472,8 +16812,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15505,8 +16851,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15538,8 +16890,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15571,8 +16929,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15604,8 +16968,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15637,8 +17007,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15670,8 +17046,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15703,8 +17085,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15736,8 +17124,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15769,8 +17163,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15802,8 +17202,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15835,8 +17241,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15868,8 +17280,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15901,8 +17319,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15934,8 +17358,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15967,8 +17397,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16000,8 +17436,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16033,8 +17475,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16066,8 +17514,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16099,8 +17553,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16132,8 +17592,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16165,8 +17631,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16198,8 +17670,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16231,8 +17709,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16264,8 +17748,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16297,8 +17787,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16330,8 +17826,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16363,8 +17865,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16396,8 +17904,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16429,8 +17943,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16462,8 +17982,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16495,8 +18021,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16528,8 +18060,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16561,8 +18099,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16594,8 +18138,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16627,8 +18177,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16660,8 +18216,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16693,8 +18255,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16726,8 +18294,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16759,8 +18333,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16792,8 +18372,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16825,8 +18411,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16858,8 +18450,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16891,8 +18489,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16924,8 +18528,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16957,8 +18567,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16990,8 +18606,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17023,8 +18645,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17056,8 +18684,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17089,8 +18723,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17122,8 +18762,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17155,8 +18801,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17188,8 +18840,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17221,8 +18879,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17254,8 +18918,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17287,8 +18957,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17320,8 +18996,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17353,8 +19035,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17386,8 +19074,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17419,8 +19113,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17452,8 +19152,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17485,8 +19191,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17518,8 +19230,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17551,8 +19269,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17584,8 +19308,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17617,8 +19347,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17650,8 +19386,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17683,8 +19425,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17716,8 +19464,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17749,8 +19503,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17782,8 +19542,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17815,8 +19581,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17848,8 +19620,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17881,8 +19659,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17914,8 +19698,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17947,8 +19737,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17980,8 +19776,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18013,8 +19815,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18046,8 +19854,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18079,8 +19893,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18112,8 +19932,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18145,8 +19971,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18178,8 +20010,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18211,8 +20049,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18244,8 +20088,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18277,8 +20127,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18310,8 +20166,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18343,8 +20205,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18376,8 +20244,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18409,8 +20283,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18442,8 +20322,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18475,8 +20361,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18508,8 +20400,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18541,8 +20439,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18574,8 +20478,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18607,8 +20517,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18640,8 +20556,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18673,8 +20595,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18706,8 +20634,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18739,8 +20673,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18772,8 +20712,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18805,8 +20751,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18838,8 +20790,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18871,8 +20829,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18904,8 +20868,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18937,8 +20907,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18967,15 +20943,23 @@
         <v>11467.83304014</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>389100</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L526" t="n">
-        <v>1</v>
-      </c>
-      <c r="M526" t="inlineStr"/>
+        <v>1.150487021331277</v>
+      </c>
+      <c r="M526" t="n">
+        <v>1.002829218106996</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -19000,7 +20984,7 @@
         <v>11051.17118183</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19033,7 +21017,7 @@
         <v>11051.17118183</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19066,7 +21050,7 @@
         <v>11190.8355522</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19099,7 +21083,7 @@
         <v>11330.4157522</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19132,7 +21116,7 @@
         <v>11772.90335178</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19165,7 +21149,7 @@
         <v>12713.33005518</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19198,7 +21182,7 @@
         <v>11959.1418025</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19231,7 +21215,7 @@
         <v>12423.21818373</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19264,7 +21248,7 @@
         <v>12210.01654207</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19297,7 +21281,7 @@
         <v>11851.59371644</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19330,7 +21314,7 @@
         <v>11958.36834083</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19363,7 +21347,7 @@
         <v>12591.21631937</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19396,7 +21380,7 @@
         <v>11972.10977979</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19429,7 +21413,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19462,7 +21446,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19495,7 +21479,7 @@
         <v>11780.01577979</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19528,7 +21512,7 @@
         <v>11634.27134089</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19561,7 +21545,7 @@
         <v>11266.26663449</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19594,7 +21578,7 @@
         <v>11554.33493449001</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19627,7 +21611,7 @@
         <v>11772.05531027001</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19660,7 +21644,7 @@
         <v>11921.19791027</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19693,7 +21677,7 @@
         <v>12058.77022655</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19726,7 +21710,7 @@
         <v>11681.34116574</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19759,7 +21743,7 @@
         <v>11560.3569318</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19792,7 +21776,7 @@
         <v>11742.50566884</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19825,7 +21809,7 @@
         <v>11406.97786909</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19858,7 +21842,7 @@
         <v>11525.37036909</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19891,7 +21875,7 @@
         <v>11601.78726909</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19924,7 +21908,7 @@
         <v>11538.43196909</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19957,7 +21941,7 @@
         <v>11688.65447803</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19990,7 +21974,7 @@
         <v>11759.76407803</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20023,7 +22007,7 @@
         <v>11825.18525111</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20056,7 +22040,7 @@
         <v>11722.23035111</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20089,7 +22073,7 @@
         <v>11749.16843987</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -35599,7 +37583,7 @@
         <v>6133.751407450008</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35632,7 +37616,7 @@
         <v>6203.583956140008</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35665,7 +37649,7 @@
         <v>6002.948510000008</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35698,7 +37682,7 @@
         <v>6148.576510000008</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -35731,7 +37715,7 @@
         <v>6054.552257160008</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -35764,7 +37748,7 @@
         <v>5965.491557160008</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35797,7 +37781,7 @@
         <v>5935.645557160008</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35830,7 +37814,7 @@
         <v>6023.630257160008</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -35863,7 +37847,7 @@
         <v>6001.455857160008</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -35896,7 +37880,7 @@
         <v>5908.370529920008</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -35995,7 +37979,7 @@
         <v>6087.630429920008</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36028,7 +38012,7 @@
         <v>6047.650325590008</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36061,7 +38045,7 @@
         <v>6100.244925590008</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36094,7 +38078,7 @@
         <v>6115.647838430008</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36127,7 +38111,7 @@
         <v>6196.867938430009</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36160,7 +38144,7 @@
         <v>6219.247638430009</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36259,7 +38243,7 @@
         <v>6235.566041890009</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36292,7 +38276,7 @@
         <v>6209.778341890009</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36325,7 +38309,7 @@
         <v>6201.331441890009</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36358,7 +38342,7 @@
         <v>6298.346541890009</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36391,7 +38375,7 @@
         <v>6401.948394420008</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36424,7 +38408,7 @@
         <v>6513.747130840008</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36457,7 +38441,7 @@
         <v>6717.468241190008</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36490,7 +38474,7 @@
         <v>6857.664137080009</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36523,7 +38507,7 @@
         <v>6699.930976110008</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
